--- a/xlsx/埃尔顿·梅奥_intext.xlsx
+++ b/xlsx/埃尔顿·梅奥_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
   <si>
     <t>埃尔顿·梅奥</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會學家</t>
+    <t>社会学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -155,9 +155,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Horizontal_psychology</t>
   </si>
   <si>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -197,13 +194,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cultural_psychology</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -281,13 +278,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學心理學</t>
+    <t>哲学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學心理學</t>
+    <t>科学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E7%BE%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人本主義心理學</t>
+    <t>人本主义心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Affective_science</t>
@@ -323,19 +320,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>行為主義</t>
+    <t>行为主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神分析學</t>
+    <t>精神分析学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知神經科學</t>
+    <t>认知神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -347,37 +344,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>心理測驗</t>
+    <t>心理测验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%B0%8E</t>
   </si>
   <si>
-    <t>輔導</t>
+    <t>辅导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -389,19 +386,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -431,13 +428,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%B8%AB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>牧師心理學</t>
+    <t>牧师心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Suicidology</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychological_research_methods</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E6%B8%AC%E8%A9%A6</t>
   </si>
   <si>
-    <t>動物測試</t>
+    <t>动物测试</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Archival_research</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%AE%B9%E5%88%86%E6%9E%90%E6%B3%95</t>
   </si>
   <si>
-    <t>內容分析法</t>
+    <t>内容分析法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%AF%95%E9%AA%8C</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E8%AB%87</t>
   </si>
   <si>
-    <t>面談</t>
+    <t>面谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E6%88%90%E5%83%8F</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>社會統計調查</t>
+    <t>社会统计调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%8A%9B</t>
@@ -587,9 +584,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>行为主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E8%A1%8C%E4%B8%BA%E7%96%97%E6%B3%95</t>
   </si>
   <si>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>認知主義</t>
+    <t>认知主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Descriptive_psychology</t>
@@ -641,9 +635,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>人本主义心理学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Narrative_therapy</t>
   </si>
   <si>
@@ -671,13 +662,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90%E5%AD%A6</t>
   </si>
   <si>
-    <t>精神分析学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%80%8B%E4%BA%BA%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>超個人心理學</t>
+    <t>超个人心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -713,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%AE%91%E6%AF%94</t>
   </si>
   <si>
-    <t>約翰·鮑比</t>
+    <t>约翰·鲍比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%92%99%E5%BE%B7%C2%B7%E5%8D%A1%E7%89%B9%E5%B0%94</t>
@@ -773,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%C2%B7L%C2%B7%E8%B5%AB%E7%88%BE</t>
   </si>
   <si>
-    <t>克拉克·L·赫爾</t>
+    <t>克拉克·L·赫尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB</t>
@@ -845,13 +833,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93%C2%B7%E7%9A%AE%E4%BA%9E%E5%82%91</t>
   </si>
   <si>
-    <t>讓·皮亞傑</t>
+    <t>让·皮亚杰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E7%BE%85%E5%93%B2%E6%96%AF</t>
   </si>
   <si>
-    <t>卡爾·羅哲斯</t>
+    <t>卡尔·罗哲斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanley_Schachter</t>
@@ -869,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%A1%91%E4%BB%A3%E5%85%8B</t>
   </si>
   <si>
-    <t>愛德華·桑代克</t>
+    <t>爱德华·桑代克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%83%E7%BD%97%E5%BE%B7%E6%96%AF%C2%B7%E5%8D%8E%E7%94%9F</t>
@@ -887,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E8%89%BE%E8%B3%93%E6%B5%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>赫爾曼·艾賓浩斯</t>
+    <t>赫尔曼·艾宾浩斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AD%A6%E7%A7%91%E5%88%97%E8%A1%A8</t>
@@ -911,13 +899,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E6%A6%82%E8%A6%81</t>
   </si>
   <si>
-    <t>心理學概要</t>
+    <t>心理学概要</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>心理療法</t>
+    <t>心理疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AD%A6%E6%B4%BE%E5%88%97%E8%A1%A8</t>
@@ -1950,7 +1938,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
@@ -1976,10 +1964,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -2005,10 +1993,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>17</v>
@@ -2034,10 +2022,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -2063,10 +2051,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2092,10 +2080,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2121,10 +2109,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2150,10 +2138,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -2179,10 +2167,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2208,10 +2196,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2237,10 +2225,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2266,10 +2254,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2295,10 +2283,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2324,10 +2312,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2353,10 +2341,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2382,10 +2370,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2411,10 +2399,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2440,10 +2428,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2469,10 +2457,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2498,10 +2486,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2527,10 +2515,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2556,10 +2544,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2585,10 +2573,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2614,10 +2602,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2643,10 +2631,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2672,10 +2660,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2701,10 +2689,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2730,10 +2718,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2759,10 +2747,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2788,10 +2776,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2817,10 +2805,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2846,10 +2834,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2875,10 +2863,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2904,10 +2892,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2933,10 +2921,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2962,10 +2950,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2991,10 +2979,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3020,10 +3008,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3049,10 +3037,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3078,10 +3066,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3107,10 +3095,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3136,10 +3124,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3165,10 +3153,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3194,10 +3182,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3223,10 +3211,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3252,10 +3240,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3281,10 +3269,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3310,10 +3298,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3339,10 +3327,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3368,10 +3356,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3397,10 +3385,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3426,10 +3414,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3455,10 +3443,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3484,10 +3472,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3513,10 +3501,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3542,10 +3530,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3571,10 +3559,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3600,10 +3588,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3629,10 +3617,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3658,10 +3646,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3687,10 +3675,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3716,10 +3704,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>70</v>
+      </c>
+      <c r="F84" t="s">
         <v>71</v>
-      </c>
-      <c r="F84" t="s">
-        <v>72</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3745,10 +3733,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3774,10 +3762,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3803,10 +3791,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3832,10 +3820,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3861,10 +3849,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3890,10 +3878,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3919,10 +3907,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3948,10 +3936,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3977,10 +3965,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4006,10 +3994,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4035,10 +4023,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4064,10 +4052,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4093,10 +4081,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4122,10 +4110,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4151,10 +4139,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4180,10 +4168,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4209,10 +4197,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4238,10 +4226,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4267,10 +4255,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4296,10 +4284,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4325,10 +4313,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4354,10 +4342,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4383,10 +4371,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4412,10 +4400,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4441,10 +4429,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4470,10 +4458,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4499,10 +4487,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4528,10 +4516,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4557,10 +4545,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4586,10 +4574,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4615,10 +4603,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4644,10 +4632,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4673,10 +4661,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4702,10 +4690,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4731,10 +4719,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4760,10 +4748,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4789,10 +4777,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4818,10 +4806,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4847,10 +4835,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4876,10 +4864,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4905,10 +4893,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4934,10 +4922,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4963,10 +4951,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4992,10 +4980,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5021,10 +5009,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5050,10 +5038,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5079,10 +5067,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5108,10 +5096,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5137,10 +5125,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5166,10 +5154,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5195,10 +5183,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5224,10 +5212,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5253,10 +5241,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5282,10 +5270,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5311,10 +5299,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5340,10 +5328,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5369,10 +5357,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5398,10 +5386,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5427,10 +5415,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5456,10 +5444,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5485,10 +5473,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5514,10 +5502,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5543,10 +5531,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>118</v>
+      </c>
+      <c r="F147" t="s">
         <v>119</v>
-      </c>
-      <c r="F147" t="s">
-        <v>120</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5572,10 +5560,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5601,10 +5589,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5630,10 +5618,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5659,10 +5647,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5688,10 +5676,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5717,10 +5705,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5746,10 +5734,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5775,10 +5763,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5804,10 +5792,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
